--- a/単体テスト.xlsx
+++ b/単体テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\workspace-temma\Programming-exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA45CC6-E0F4-4A25-B867-631AB2A2DE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BFD45E-B402-4DBE-B057-FE2C3EA5AC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="21705" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="21705" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index.php" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="61">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -435,18 +435,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プルダウン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テキストボックス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ラジオボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>操作手順</t>
     <rPh sb="0" eb="4">
       <t>ソウサテジュン</t>
@@ -485,6 +473,43 @@
     <t>アクセス</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>テキストボックスに入力</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラジオボタンを選択</t>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プルダウンを選択</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プルダウンを選択</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページをリロードする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>error.phpに遷移する</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -520,7 +545,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,6 +567,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,7 +661,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -712,6 +743,12 @@
     <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -721,34 +758,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4230,7 +4255,7 @@
   <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -4260,12 +4285,12 @@
       <c r="A4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -4293,16 +4318,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="30">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
         <v>1</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
@@ -5406,8 +5431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -5437,13 +5462,13 @@
       <c r="A4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -5485,7 +5510,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>42</v>
@@ -5509,7 +5534,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>42</v>
@@ -5533,7 +5558,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>42</v>
@@ -5557,7 +5582,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>42</v>
@@ -5581,7 +5606,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>43</v>
@@ -5605,7 +5630,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>42</v>
@@ -5629,7 +5654,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>44</v>
@@ -5653,7 +5678,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>45</v>
@@ -5677,7 +5702,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>46</v>
@@ -5701,7 +5726,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>42</v>
@@ -5725,7 +5750,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>43</v>
@@ -5749,7 +5774,7 @@
         <v>22</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>47</v>
@@ -6999,7 +7024,7 @@
   <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -7029,13 +7054,13 @@
       <c r="A4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -7051,7 +7076,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>30</v>
@@ -7071,182 +7096,182 @@
         <v>1</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F7" s="26">
         <v>45183</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="30">
+      <c r="A8" s="4">
         <v>2</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="36"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="30">
+      <c r="A9" s="4">
         <v>3</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="36"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="30">
+      <c r="A10" s="4">
         <v>4</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="36"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="30">
+      <c r="A11" s="4">
         <v>5</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="36"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="30">
+      <c r="A12" s="4">
         <v>6</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="36"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="30">
+      <c r="A13" s="4">
         <v>7</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="36"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="30">
+      <c r="A14" s="4">
         <v>8</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="36"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="30">
+      <c r="A15" s="4">
         <v>9</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="36"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="30">
+      <c r="A16" s="4">
         <v>10</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="36"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="30">
+      <c r="A17" s="4">
         <v>11</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="36"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="30">
+      <c r="A18" s="4">
         <v>12</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="36"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="30">
+      <c r="A19" s="4">
         <v>13</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="36"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="30">
+      <c r="A20" s="4">
         <v>14</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="36"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
@@ -8292,8 +8317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F57B83C-522B-41CC-BF95-F886B8DBAF67}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -8323,13 +8348,13 @@
       <c r="A4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -8365,38 +8390,52 @@
         <v>1</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F7" s="26">
         <v>45183</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+      <c r="A8" s="32">
         <v>2</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
+      <c r="B8" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="35">
+        <v>45185</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
@@ -8407,7 +8446,6 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="6"/>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">

--- a/単体テスト.xlsx
+++ b/単体テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\workspace-temma\Programming-exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BFD45E-B402-4DBE-B057-FE2C3EA5AC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B1FF75-5B30-4E8C-BC45-E0D39A92340D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="21705" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="75">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -442,13 +442,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>error.phpに遷移する</t>
-    <rPh sb="10" eb="12">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>×</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -508,6 +501,109 @@
   </si>
   <si>
     <t>error.phpに遷移する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unauthorized.phpに遷移する</t>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POSTされた値が表示される</t>
+    <rPh sb="7" eb="8">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このページにアクセス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナビゲーションバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録リンク</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク押下</t>
+    <rPh sb="3" eb="5">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regist.phpに遷移する</t>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「確認する」ボタン</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン押下</t>
+    <rPh sb="3" eb="5">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各項目の入力チェック、問題がなければregist_confirm.phpに遷移する</t>
+  </si>
+  <si>
+    <t>「登録する」ボタン</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regist_complete.phpに遷移する</t>
+    <rPh sb="20" eb="22">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「前に戻る」ボタン</t>
+    <rPh sb="1" eb="2">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力情報を保持してregist.phpに遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>オシイレ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -661,7 +757,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -743,20 +839,8 @@
     <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -774,6 +858,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4252,10 +4351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6ADE342-0B5A-4ED1-A114-00331DB4481C}">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -4269,33 +4368,33 @@
     <col min="7" max="7" width="44.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="23" t="s">
         <v>0</v>
       </c>
@@ -4318,18 +4417,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="11">
         <v>1</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="27"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="14">
+        <v>45183</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -4340,7 +4452,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>3</v>
       </c>
@@ -4351,7 +4463,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>4</v>
       </c>
@@ -4362,7 +4474,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -4373,7 +4485,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>6</v>
       </c>
@@ -4384,7 +4496,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>7</v>
       </c>
@@ -4395,7 +4507,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>8</v>
       </c>
@@ -4406,7 +4518,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>9</v>
       </c>
@@ -4417,7 +4529,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>10</v>
       </c>
@@ -5432,7 +5544,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -5462,13 +5574,13 @@
       <c r="A4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -5510,7 +5622,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>42</v>
@@ -5534,7 +5646,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>42</v>
@@ -5558,7 +5670,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>42</v>
@@ -5582,7 +5694,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>42</v>
@@ -5606,7 +5718,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>43</v>
@@ -5630,7 +5742,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>42</v>
@@ -5654,7 +5766,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>44</v>
@@ -5678,7 +5790,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>45</v>
@@ -5702,7 +5814,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>46</v>
@@ -5726,7 +5838,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>42</v>
@@ -5750,7 +5862,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>43</v>
@@ -5774,7 +5886,7 @@
         <v>22</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>47</v>
@@ -6220,16 +6332,28 @@
       <c r="H36" s="17"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="4">
+      <c r="A37" s="18">
         <v>32</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="7"/>
+      <c r="B37" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="26">
+        <v>45183</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="20"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
@@ -7024,7 +7148,7 @@
   <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -7054,13 +7178,13 @@
       <c r="A4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -7096,194 +7220,360 @@
         <v>1</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F7" s="26">
+        <v>45185</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="11">
+        <v>2</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="14">
         <v>45183</v>
       </c>
-      <c r="G7" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
-        <v>2</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
+      <c r="G8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="A9" s="11">
         <v>3</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
+      <c r="B9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="14">
+        <v>45183</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+      <c r="A10" s="11">
         <v>4</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
+      <c r="B10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="14">
+        <v>45183</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+      <c r="A11" s="11">
         <v>5</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
+      <c r="B11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="14">
+        <v>45183</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
+      <c r="A12" s="11">
         <v>6</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
+      <c r="B12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="14">
+        <v>45183</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
+      <c r="A13" s="11">
         <v>7</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
+      <c r="B13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="14">
+        <v>45183</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
+      <c r="A14" s="11">
         <v>8</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
+      <c r="B14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="14">
+        <v>45183</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
+      <c r="A15" s="11">
         <v>9</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
+      <c r="B15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="14">
+        <v>45183</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
+      <c r="A16" s="11">
         <v>10</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
+      <c r="B16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="14">
+        <v>45183</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
+      <c r="A17" s="11">
         <v>11</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="7"/>
+      <c r="B17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="14">
+        <v>45183</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
+      <c r="A18" s="11">
         <v>12</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="7"/>
+      <c r="B18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="14">
+        <v>45183</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
+      <c r="A19" s="11">
         <v>13</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7"/>
+      <c r="B19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="14">
+        <v>45183</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
+      <c r="A20" s="28">
         <v>14</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
+      <c r="B20" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="31">
+        <v>45183</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="33"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="4">
+      <c r="A21" s="28">
         <v>15</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7"/>
+      <c r="B21" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="31">
+        <v>45183</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="33"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
@@ -8317,8 +8607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F57B83C-522B-41CC-BF95-F886B8DBAF67}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -8348,13 +8638,13 @@
       <c r="A4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -8390,51 +8680,49 @@
         <v>1</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="26">
+        <v>45185</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="28">
+        <v>2</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="31">
+        <v>45185</v>
+      </c>
+      <c r="G8" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="26">
-        <v>45183</v>
-      </c>
-      <c r="G7" s="22" t="s">
+      <c r="H8" s="33" t="s">
         <v>50</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="32">
-        <v>2</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="35">
-        <v>45185</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
